--- a/ResultadoEleicoesDistritos/VISEU_VISEU.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_VISEU.xlsx
@@ -597,64 +597,64 @@
         <v>27714</v>
       </c>
       <c r="H2" t="n">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="I2" t="n">
-        <v>2786</v>
+        <v>2798</v>
       </c>
       <c r="J2" t="n">
-        <v>11431</v>
+        <v>11437</v>
       </c>
       <c r="K2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L2" t="n">
-        <v>3035</v>
+        <v>3120</v>
       </c>
       <c r="M2" t="n">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="N2" t="n">
-        <v>1975</v>
+        <v>2019</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R2" t="n">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="S2" t="n">
-        <v>1270</v>
+        <v>1200</v>
       </c>
       <c r="T2" t="n">
-        <v>2071</v>
+        <v>1941</v>
       </c>
       <c r="U2" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="V2" t="n">
-        <v>17768</v>
+        <v>17677</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>17553</v>
+        <v>17738</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AA2" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
